--- a/Rendimiento JMeter.xlsx
+++ b/Rendimiento JMeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Proyectos\Lab3Tingeso\Lab3Tingeso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D3A9F-C1A9-4172-B91D-973FE6CEA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E22FB-B51C-40C7-AC2E-588920E09556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -102,12 +102,6 @@
     <t>50 por segundo</t>
   </si>
   <si>
-    <t>10 por segundo por 5 minutos</t>
-  </si>
-  <si>
-    <t>30 por segundo por 5 minutos</t>
-  </si>
-  <si>
     <t>70 por segundo por 5 minutos</t>
   </si>
   <si>
@@ -135,12 +129,6 @@
     <t>500 por segundo</t>
   </si>
   <si>
-    <t>150 por segundo por 5 minutos</t>
-  </si>
-  <si>
-    <t>700 por segundo por 5 minutos</t>
-  </si>
-  <si>
     <t>1 mes de datos</t>
   </si>
   <si>
@@ -196,6 +184,24 @@
   </si>
   <si>
     <t>191,1/sec</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>10 rentas en BD</t>
+  </si>
+  <si>
+    <t>10,0/sec</t>
+  </si>
+  <si>
+    <t>247,6/sec</t>
+  </si>
+  <si>
+    <t>10 rentas en BD. En alto, 1:55 minutos en terminar, Maximo de latencia = 92678</t>
+  </si>
+  <si>
+    <t>515,5/5</t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -331,6 +337,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -343,14 +373,25 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,19 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,7 +427,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +739,7 @@
     <col min="14" max="15" width="28.5703125" customWidth="1"/>
     <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="72" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -728,662 +758,675 @@
     <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E1" s="24" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E2" s="18" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="11" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>472</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="N5" s="1">
+        <v>566</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="P5" s="11">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>717</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1">
+        <v>565</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1">
+        <v>283</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="11">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1214</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1.47E-2</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1522</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="11">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2">
-        <v>472</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="2">
-        <v>566</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2">
-        <v>717</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="14">
-        <v>1.34E-2</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2">
-        <v>565</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.32740000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2">
-        <v>9</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2">
-        <v>283</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="14">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1214</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="14">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="R20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="E8:P8"/>
     <mergeCell ref="E15:P15"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E1:P1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBDA1EBE-557B-4016-9780-43BB606A6F78}"/>

--- a/Rendimiento JMeter.xlsx
+++ b/Rendimiento JMeter.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Proyectos\Lab3Tingeso\Lab3Tingeso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E22FB-B51C-40C7-AC2E-588920E09556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF7927-B456-46D1-B1AF-69E0D0DA90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -69,18 +80,12 @@
     <t>RF8</t>
   </si>
   <si>
-    <t>saveCalc</t>
-  </si>
-  <si>
     <t>getCalendarEventsForWeeks</t>
   </si>
   <si>
     <t>generateFeeTypeReport</t>
   </si>
   <si>
-    <t>http://localhost:/receipt/calcAndSave</t>
-  </si>
-  <si>
     <t>http://localhost:/api/calendar/getEventsFromWeek</t>
   </si>
   <si>
@@ -93,51 +98,12 @@
     <t>http://localhost:/api/report/fee-type</t>
   </si>
   <si>
-    <t>5 por segundo</t>
-  </si>
-  <si>
-    <t>20 por segundo</t>
-  </si>
-  <si>
-    <t>50 por segundo</t>
-  </si>
-  <si>
-    <t>70 por segundo por 5 minutos</t>
-  </si>
-  <si>
-    <t>100 datos</t>
-  </si>
-  <si>
-    <t>500 datos</t>
-  </si>
-  <si>
-    <t>1000 datos</t>
-  </si>
-  <si>
     <t>10 por segundo</t>
   </si>
   <si>
-    <t>1 semana de datos</t>
-  </si>
-  <si>
-    <t>4 semanas de datos</t>
-  </si>
-  <si>
-    <t>12 semanas de datos</t>
-  </si>
-  <si>
     <t>500 por segundo</t>
   </si>
   <si>
-    <t>1 mes de datos</t>
-  </si>
-  <si>
-    <t>6 meses de datos</t>
-  </si>
-  <si>
-    <t>12 meses de datos</t>
-  </si>
-  <si>
     <t>Resultado Throughput</t>
   </si>
   <si>
@@ -202,13 +168,148 @@
   </si>
   <si>
     <t>515,5/5</t>
+  </si>
+  <si>
+    <t>http://localhost:/api/receipt/saveFromPreview</t>
+  </si>
+  <si>
+    <t>http://localhost:/api/receipt/calculatePreview</t>
+  </si>
+  <si>
+    <t>calculatePreview (A)</t>
+  </si>
+  <si>
+    <t>saveFromPreview (B)</t>
+  </si>
+  <si>
+    <t>250 por segundo</t>
+  </si>
+  <si>
+    <t>77,6/sec</t>
+  </si>
+  <si>
+    <t>129,1/sec</t>
+  </si>
+  <si>
+    <t>10,1/sec</t>
+  </si>
+  <si>
+    <t>200 por segundo por 1 minuto</t>
+  </si>
+  <si>
+    <t>195,4/sec</t>
+  </si>
+  <si>
+    <t>500  por segundo por 5 minutos</t>
+  </si>
+  <si>
+    <t>391,1/sec</t>
+  </si>
+  <si>
+    <t>1:16 minutos en terminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 por segundo </t>
+  </si>
+  <si>
+    <t>189,0/sec</t>
+  </si>
+  <si>
+    <t>800 por segundo</t>
+  </si>
+  <si>
+    <t>269,2/sec</t>
+  </si>
+  <si>
+    <t>11,0/sec</t>
+  </si>
+  <si>
+    <t>500 por segundo por 1 minuto</t>
+  </si>
+  <si>
+    <t>499,8/sec</t>
+  </si>
+  <si>
+    <t>886,2/sec</t>
+  </si>
+  <si>
+    <t>24,2/sec</t>
+  </si>
+  <si>
+    <t>50 por segundo, 200 Rentas</t>
+  </si>
+  <si>
+    <t>50 por segundo, 1000 rentas</t>
+  </si>
+  <si>
+    <t>50 por segundo, 10000 rentas</t>
+  </si>
+  <si>
+    <t>Maximo de rentas por semana=</t>
+  </si>
+  <si>
+    <t>39,5/min</t>
+  </si>
+  <si>
+    <t>Maximo de rentas por mes=</t>
+  </si>
+  <si>
+    <t>39,3/sec</t>
+  </si>
+  <si>
+    <t>24,7/sec</t>
+  </si>
+  <si>
+    <t>5,8/sec</t>
+  </si>
+  <si>
+    <t>8 segundos en terminar, Maximo de latencia = 8200</t>
+  </si>
+  <si>
+    <t>50 threads, 20 sec ramp up, 5 count</t>
+  </si>
+  <si>
+    <t>12,7/sec</t>
+  </si>
+  <si>
+    <t>200 threads, 10 sec ramp up, 20 count</t>
+  </si>
+  <si>
+    <t>372,6/sec</t>
+  </si>
+  <si>
+    <t>500 threads, 10 sec ramp up, 30 count</t>
+  </si>
+  <si>
+    <t>755,3/sec</t>
+  </si>
+  <si>
+    <t>Maximo de latencia = 15440</t>
+  </si>
+  <si>
+    <t>100 threads, 30 sec ramp up, 10 count</t>
+  </si>
+  <si>
+    <t>33,6/sec</t>
+  </si>
+  <si>
+    <t>300 threads, 15 sec ramp up, 20 count</t>
+  </si>
+  <si>
+    <t>331,8/sec</t>
+  </si>
+  <si>
+    <t>328,5/sec</t>
+  </si>
+  <si>
+    <t>Maximo de latencia = 39689</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +327,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -366,18 +477,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +513,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,9 +528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,14 +548,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -715,14 +850,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -758,47 +893,47 @@
     <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="23" t="s">
+    <row r="1" spans="1:18">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E2" s="17" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="13" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="R2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -810,636 +945,906 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>53</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1286</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1148</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.192</v>
+      </c>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1"/>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1">
+        <v>288</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="1">
+        <v>721</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1">
+        <v>472</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1">
+        <v>566</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1">
+        <v>717</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1">
+        <v>565</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="28"/>
+      <c r="C8" s="4"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="29"/>
+      <c r="E9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="29"/>
+      <c r="E10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1">
+        <v>78</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="1">
+        <v>480</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1">
+        <v>26</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="1">
+        <v>334</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="9">
+        <v>3.85E-2</v>
+      </c>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1">
+        <v>283</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="9">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1214</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1.47E-2</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1">
+        <v>29</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1522</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="9">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="28"/>
+      <c r="C16" s="4"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" s="29"/>
+      <c r="E17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="29"/>
+      <c r="E18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="I19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="1">
+        <v>72</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="1">
+        <v>839</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1"/>
+      <c r="B21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1">
+        <v>6</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="1">
+        <v>225</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1181</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2760</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="1">
+        <v>38745</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1">
-        <v>472</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1">
-        <v>566</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1">
-        <v>25</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1">
-        <v>717</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1.34E-2</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1">
-        <v>565</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="1">
-        <v>283</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="11">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1214</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1.47E-2</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1">
-        <v>17</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="1">
-        <v>29</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="11">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1522</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="11">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="R19" s="25"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="R20" s="26"/>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1">
+        <v>53</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="1">
+        <v>374</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4519</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <f>(12*2)*2+(10*2)*5</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <f>F26*4</f>
+        <v>592</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="E17:P17"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="M10:P10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBDA1EBE-557B-4016-9780-43BB606A6F78}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{16FCB210-C6A2-4968-AE34-F19DFB76342D}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{8EE2A2EB-9AAF-4DB5-B224-6182C79CEF2F}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{432A7FC3-E3CF-4A76-A9BB-64161E345926}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{006C26CD-CE77-4572-8DDF-CBCCE025D628}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{8B4D64A2-F2B7-4F6B-9222-6536C49E7C0F}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{DC924BE5-FF77-4667-9F23-ECC0C59E9DB9}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{A8795D85-E23A-4A7A-93A0-8C7600CF6D36}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{B1DF9528-B234-47A4-AD69-03506A944271}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{16FCB210-C6A2-4968-AE34-F19DFB76342D}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{8EE2A2EB-9AAF-4DB5-B224-6182C79CEF2F}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{006C26CD-CE77-4572-8DDF-CBCCE025D628}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{8B4D64A2-F2B7-4F6B-9222-6536C49E7C0F}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{A8795D85-E23A-4A7A-93A0-8C7600CF6D36}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{B1DF9528-B234-47A4-AD69-03506A944271}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{736E3D15-0591-4999-A106-0607BDA72545}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{4B00DAC8-E62C-4A7A-8399-1D2AC724379F}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{C2509897-8C55-4659-A451-7E29EC5FA604}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{9FF6B517-8A70-4A62-A8A8-3D6C0B861B4E}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{6C1845A7-5745-4077-9E88-47876403B725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>